--- a/Finesimulations/GRID_PV_Storage/Results/Summary.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/Summary.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11546.78839247327</v>
+        <v>11596.53993302689</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17835.43650000022</v>
+        <v>15785.03079000041</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1116.71322572807</v>
+        <v>1170.388941922528</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.578825873744</v>
+        <v>1056.008723141073</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20217.59999999952</v>
+        <v>20217.59999999949</v>
       </c>
     </row>
     <row r="9">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3725.252209966534</v>
+        <v>3738.737584105171</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>192740.8281417474</v>
+        <v>193226.2239903583</v>
       </c>
     </row>
     <row r="11">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1156606946615231</v>
+        <v>0.1176160567795326</v>
       </c>
     </row>
     <row r="12">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3711697003524462</v>
+        <v>0.3541473878820095</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3500000000000069</v>
+        <v>0.3500000000000018</v>
       </c>
     </row>
     <row r="14">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.993881035664362</v>
+        <v>0.9927538805401921</v>
       </c>
     </row>
     <row r="15">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5832976831450872</v>
+        <v>0.5510543047759427</v>
       </c>
     </row>
   </sheetData>

--- a/Finesimulations/GRID_PV_Storage/Results/Summary.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/Summary.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>10.7957039567556</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11596.53993302689</v>
+        <v>13212.71166189251</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15785.03079000041</v>
+        <v>9293.529036356393</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1170.388941922528</v>
+        <v>920.4767212210036</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1056.008723141073</v>
+        <v>830.5004175541554</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20217.59999999949</v>
+        <v>20217.59999999929</v>
       </c>
     </row>
     <row r="9">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3738.737584105171</v>
+        <v>4174.859911747636</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>193226.2239903583</v>
+        <v>214483.7612266095</v>
       </c>
     </row>
     <row r="11">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1176160567795326</v>
+        <v>0.07987641979516172</v>
       </c>
     </row>
     <row r="12">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3541473878820095</v>
+        <v>0.450310105782265</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3500000000000018</v>
+        <v>0.3499999999999948</v>
       </c>
     </row>
     <row r="14">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9927538805401921</v>
+        <v>0.9903183921506162</v>
       </c>
     </row>
     <row r="15">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5510543047759427</v>
+        <v>0.3943803758639259</v>
       </c>
     </row>
   </sheetData>

--- a/Finesimulations/GRID_PV_Storage/Results/Summary.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/Summary.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.7957039567556</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13212.71166189251</v>
+        <v>18732.19023536615</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9293.529036356393</v>
+        <v>1485.548159853576</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>920.4767212210036</v>
+        <v>0.1383952194513708</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>830.5004175541554</v>
+        <v>3.090678116214709e-18</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20217.59999999929</v>
+        <v>20217.60000000103</v>
       </c>
     </row>
     <row r="9">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4174.859911747636</v>
+        <v>5664.220747500913</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214483.7612266095</v>
+        <v>292204.1456634886</v>
       </c>
     </row>
     <row r="11">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07987641979516172</v>
+        <v>1.388618040753951</v>
       </c>
     </row>
     <row r="12">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.450310105782265</v>
+        <v>1.210034551702396e+20</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3499999999999948</v>
+        <v>0.3499999999999936</v>
       </c>
     </row>
     <row r="14">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9903183921506162</v>
+        <v>0.9999068389546928</v>
       </c>
     </row>
     <row r="15">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3943803758639259</v>
+        <v>0.0734706194925014</v>
       </c>
     </row>
   </sheetData>

--- a/Finesimulations/GRID_PV_Storage/Results/Summary.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/Summary.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18732.19023536615</v>
+        <v>8602.31615895128</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1485.548159853576</v>
+        <v>87304.42145456493</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1383952194513708</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.090678116214709e-18</v>
+        <v>1421.172084527004</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20217.60000000103</v>
+        <v>20217.60000000038</v>
       </c>
     </row>
     <row r="9">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5664.220747500913</v>
+        <v>2930.691642071566</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>292204.1456634886</v>
+        <v>156795.5720740293</v>
       </c>
     </row>
     <row r="11">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.388618040753951</v>
+        <v>0.07876114942834694</v>
       </c>
     </row>
     <row r="12">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.210034551702396e+20</v>
+        <v>0.2631509125128196</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3499999999999936</v>
+        <v>0.3499999999999949</v>
       </c>
     </row>
     <row r="14">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999068389546928</v>
+        <v>0.9982380283505567</v>
       </c>
     </row>
     <row r="15">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0734706194925014</v>
+        <v>0.8954327058854333</v>
       </c>
     </row>
   </sheetData>

--- a/Finesimulations/GRID_PV_Storage/Results/Summary.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/Summary.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>133.3333333333333</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8602.31615895128</v>
+        <v>8362.283772317136</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>87304.42145456493</v>
+        <v>121802.6639999999</v>
       </c>
     </row>
     <row r="6">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1421.172084527004</v>
+        <v>1421.18598771462</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20217.60000000038</v>
+        <v>20217.59999999971</v>
       </c>
     </row>
     <row r="9">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2930.691642071566</v>
+        <v>2865.882758648496</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156795.5720740293</v>
+        <v>155763.1820955332</v>
       </c>
     </row>
     <row r="11">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07876114942834694</v>
+        <v>0.07527144161574192</v>
       </c>
     </row>
     <row r="12">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2631509125128196</v>
+        <v>0.263148338158344</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3499999999999949</v>
+        <v>0.3499999999999986</v>
       </c>
     </row>
     <row r="14">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9982380283505567</v>
+        <v>0.9987371867967868</v>
       </c>
     </row>
     <row r="15">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8954327058854333</v>
+        <v>0.9244807679322856</v>
       </c>
     </row>
   </sheetData>

--- a/Finesimulations/GRID_PV_Storage/Results/Summary.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/Summary.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133.3333333333333</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8362.283772317136</v>
+        <v>8723.919156434198</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>121802.6639999999</v>
+        <v>89076.78952001187</v>
       </c>
     </row>
     <row r="6">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1421.18598771462</v>
+        <v>1421.199252239083</v>
       </c>
     </row>
     <row r="8">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2865.882758648496</v>
+        <v>2963.524179714889</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155763.1820955332</v>
+        <v>158479.7600053143</v>
       </c>
     </row>
     <row r="11">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07527144161574192</v>
+        <v>0.07719403248579779</v>
       </c>
     </row>
     <row r="12">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.263148338158344</v>
+        <v>0.263145882107538</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3499999999999986</v>
+        <v>0.3500000000000028</v>
       </c>
     </row>
     <row r="14">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9987371867967868</v>
+        <v>0.9982733914346132</v>
       </c>
     </row>
     <row r="15">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9244807679322856</v>
+        <v>0.8962031735588429</v>
       </c>
     </row>
   </sheetData>

--- a/Finesimulations/GRID_PV_Storage/Results/Summary.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/Summary.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8723.919156434198</v>
+        <v>8831.355113164813</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89076.78952001187</v>
+        <v>79354.61403309148</v>
       </c>
     </row>
     <row r="6">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1421.199252239083</v>
+        <v>1421.201574319291</v>
       </c>
     </row>
     <row r="8">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2963.524179714889</v>
+        <v>2992.531864811288</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158479.7600053143</v>
+        <v>159967.7468449901</v>
       </c>
     </row>
     <row r="11">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07719403248579779</v>
+        <v>0.08665150310063811</v>
       </c>
     </row>
     <row r="12">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.263145882107538</v>
+        <v>0.2631454521573777</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3500000000000028</v>
+        <v>0.3499999999999938</v>
       </c>
     </row>
     <row r="14">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9982733914346132</v>
+        <v>0.9980618842702891</v>
       </c>
     </row>
     <row r="15">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8962031735588429</v>
+        <v>0.8838669379974597</v>
       </c>
     </row>
   </sheetData>

--- a/Finesimulations/GRID_PV_Storage/Results/Summary.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/Summary.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>18.46262876487648</v>
       </c>
     </row>
     <row r="3">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0.9993073109016987</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8831.355113164813</v>
+        <v>13105.86444722955</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79354.61403309148</v>
+        <v>11888.26840371751</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1575</v>
+        <v>266.2820652073141</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1421.201574319291</v>
+        <v>240.280632614111</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20217.59999999971</v>
+        <v>20217.60000000001</v>
       </c>
     </row>
     <row r="9">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2992.531864811288</v>
+        <v>4145.371415078048</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159967.7468449901</v>
+        <v>213199.8946942892</v>
       </c>
     </row>
     <row r="11">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08665150310063811</v>
+        <v>0.1067881886010138</v>
       </c>
     </row>
     <row r="12">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2631454521573777</v>
+        <v>0.3110726595435515</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3499999999999938</v>
+        <v>0.3500000000000072</v>
       </c>
     </row>
     <row r="14">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9980618842702891</v>
+        <v>0.997812849465509</v>
       </c>
     </row>
     <row r="15">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8838669379974597</v>
+        <v>0.4700829277784451</v>
       </c>
     </row>
   </sheetData>

--- a/Finesimulations/GRID_PV_Storage/Results/Summary.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/Summary.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.46262876487648</v>
+        <v>162.6848836413069</v>
       </c>
     </row>
     <row r="3">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9993073109016987</v>
+        <v>49.76516661019377</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13105.86444722955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11888.26840371751</v>
+        <v>143934.1102782082</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>266.2820652073141</v>
+        <v>9707.816839233754</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>240.280632614111</v>
+        <v>8756.876020340693</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20217.60000000001</v>
+        <v>20217.59999999929</v>
       </c>
     </row>
     <row r="9">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4145.371415078048</v>
+        <v>616.0374081889174</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213199.8946942892</v>
+        <v>45710.66540329998</v>
       </c>
     </row>
     <row r="11">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1067881886010138</v>
+        <v>0.07771981492021149</v>
       </c>
     </row>
     <row r="12">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3110726595435515</v>
+        <v>0.4250674068788627</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3500000000000072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.997812849465509</v>
+        <v>0.9933932212659528</v>
       </c>
     </row>
     <row r="15">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4700829277784451</v>
+        <v>0.9364218080283236</v>
       </c>
     </row>
   </sheetData>
